--- a/outputs/ML_Results/carown_LR_new/All_model_short_table.xlsx
+++ b/outputs/ML_Results/carown_LR_new/All_model_short_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\ML_Results\carown_LR_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{875E0AC5-10C7-46FB-A0A4-04C0BE479624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B1819F-F9CC-4F4B-98AE-6E6FAF88D28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_model_short" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>param</t>
   </si>
@@ -78,12 +78,15 @@
   </si>
   <si>
     <t>LU_Comm</t>
+  </si>
+  <si>
+    <t>DistCenter_pc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -629,9 +632,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -669,7 +672,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -775,7 +778,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -917,18 +920,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C20"/>
+      <selection activeCell="B15" sqref="B15:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,10 +955,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.71954722869435095</v>
+        <v>-0.46023953223507202</v>
       </c>
       <c r="C2" s="1">
-        <v>9.6482980244033705E-49</v>
+        <v>1.6980652489026601E-20</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -966,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>5.5818982368139995E-4</v>
+        <v>5.5707971072500005E-4</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -980,10 +983,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.270267611435004</v>
+        <v>0.26762141147343699</v>
       </c>
       <c r="C4" s="1">
-        <v>2.74256017930511E-74</v>
+        <v>3.06692592906174E-72</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -994,10 +997,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1.50545488827309E-2</v>
+        <v>1.4438622467591301E-2</v>
       </c>
       <c r="C5" s="1">
-        <v>2.8966500217427202E-36</v>
+        <v>1.5167297187798899E-34</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1008,10 +1011,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>3.0499344724840001E-3</v>
+        <v>1.7964720611974301E-2</v>
       </c>
       <c r="C6">
-        <v>0.85037278666252902</v>
+        <v>0.584482422169879</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -1023,13 +1026,13 @@
     <row r="10" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-2.8095551521009998E-3</v>
-      </c>
-      <c r="C11">
-        <v>0.55977230871243</v>
+        <v>2.6592338875686002E-3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.2523353552762901E-10</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1040,10 +1043,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6.5669537721949999E-4</v>
+        <v>-1.26940107793429E-2</v>
       </c>
       <c r="C12">
-        <v>0.75273917081673003</v>
+        <v>0.22159900944383601</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -1054,10 +1057,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-7.4341377219163899E-3</v>
+        <v>-7.2404768539832999E-3</v>
       </c>
       <c r="C13" s="1">
-        <v>3.65973380204532E-120</v>
+        <v>4.1602598350801603E-119</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -1068,10 +1071,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-1.6513566718803999E-3</v>
+        <v>-1.1497969342928E-3</v>
       </c>
       <c r="C15">
-        <v>0.22845956663630401</v>
+        <v>0.39047027816843799</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -1082,10 +1085,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-1.2728573730549E-3</v>
+        <v>-3.5020744151725998E-3</v>
       </c>
       <c r="C16">
-        <v>0.19006894237791599</v>
+        <v>1.7464723909840001E-4</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -1096,10 +1099,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.4412211735925101E-3</v>
+        <v>0.25676778313603299</v>
       </c>
       <c r="C17">
-        <v>0.38228229517253598</v>
+        <v>0.119577024469868</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -1110,10 +1113,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-1.468769233589E-4</v>
+        <v>-9.9248980255405E-3</v>
       </c>
       <c r="C18" s="1">
-        <v>2.1696816107286901E-34</v>
+        <v>3.1905094989472801E-28</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -1124,10 +1127,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.3957194847412804E-3</v>
+        <v>0.76012747802402003</v>
       </c>
       <c r="C19" s="1">
-        <v>2.4554891215432402E-10</v>
+        <v>2.2370683587341199E-11</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -1138,10 +1141,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-9.3299836935181197E-3</v>
+        <v>-0.63594752240793095</v>
       </c>
       <c r="C20" s="1">
-        <v>7.0787061461677395E-10</v>
+        <v>1.8968741510654099E-5</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -1153,11 +1156,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1181,10 +1184,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>-0.71954722869435095</v>
+        <v>-0.46023953223507202</v>
       </c>
       <c r="D2" s="3">
-        <v>9.6482980244033705E-49</v>
+        <v>1.6980652489026601E-20</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -1192,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>5.5818982368139995E-4</v>
+        <v>5.5707971072500005E-4</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -1203,10 +1206,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="3">
-        <v>0.270267611435004</v>
+        <v>0.26762141147343699</v>
       </c>
       <c r="D4" s="3">
-        <v>2.74256017930511E-74</v>
+        <v>3.06692592906174E-72</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -1214,10 +1217,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="3">
-        <v>1.50545488827309E-2</v>
+        <v>1.4438622467591301E-2</v>
       </c>
       <c r="D5" s="3">
-        <v>2.8966500217427202E-36</v>
+        <v>1.5167297187798899E-34</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -1225,10 +1228,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>3.0499344724840001E-3</v>
+        <v>1.7964720611974301E-2</v>
       </c>
       <c r="D6" s="3">
-        <v>0.85037278666252902</v>
+        <v>0.584482422169879</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -1236,10 +1239,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="3">
-        <v>-2.8095551521009998E-3</v>
+        <v>2.6592338875686002E-3</v>
       </c>
       <c r="D7" s="3">
-        <v>0.55977230871243</v>
+        <v>4.2523353552762901E-10</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -1247,10 +1250,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="3">
-        <v>6.5669537721949999E-4</v>
+        <v>-1.26940107793429E-2</v>
       </c>
       <c r="D8" s="3">
-        <v>0.75273917081673003</v>
+        <v>0.22159900944383601</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -1258,10 +1261,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="3">
-        <v>-7.4341377219163899E-3</v>
+        <v>-7.2404768539832999E-3</v>
       </c>
       <c r="D9" s="3">
-        <v>3.65973380204532E-120</v>
+        <v>4.1602598350801603E-119</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -1269,10 +1272,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="3">
-        <v>-1.6513566718803999E-3</v>
+        <v>-1.1497969342928E-3</v>
       </c>
       <c r="D10" s="3">
-        <v>0.22845956663630401</v>
+        <v>0.39047027816843799</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -1280,10 +1283,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="3">
-        <v>-1.2728573730549E-3</v>
+        <v>-3.5020744151725998E-3</v>
       </c>
       <c r="D11" s="3">
-        <v>0.19006894237791599</v>
+        <v>1.7464723909840001E-4</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1291,10 +1294,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="3">
-        <v>1.4412211735925101E-3</v>
+        <v>0.25676778313603299</v>
       </c>
       <c r="D12" s="3">
-        <v>0.38228229517253598</v>
+        <v>0.119577024469868</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -1302,10 +1305,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>-1.468769233589E-4</v>
+        <v>-9.9248980255405E-3</v>
       </c>
       <c r="D13" s="3">
-        <v>2.1696816107286901E-34</v>
+        <v>3.1905094989472801E-28</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -1313,10 +1316,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="3">
-        <v>7.3957194847412804E-3</v>
+        <v>0.76012747802402003</v>
       </c>
       <c r="D14" s="3">
-        <v>2.4554891215432402E-10</v>
+        <v>2.2370683587341199E-11</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -1324,10 +1327,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="3">
-        <v>-9.3299836935181197E-3</v>
+        <v>-0.63594752240793095</v>
       </c>
       <c r="D15" s="3">
-        <v>7.0787061461677395E-10</v>
+        <v>1.8968741510654099E-5</v>
       </c>
     </row>
   </sheetData>
